--- a/Incentive_COM/result/Bùi Duy Anh.xlsx
+++ b/Incentive_COM/result/Bùi Duy Anh.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="69">
   <si>
     <t>KAM/KAE (Full name)</t>
   </si>
@@ -101,9 +101,6 @@
     <t>SHISEIDO PREMIUM</t>
   </si>
   <si>
-    <t>Shiseido Premium</t>
-  </si>
-  <si>
     <t>SHISEIDO PRESTIGE</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>ANESSA X HANNAH - LANDING PAGE</t>
   </si>
   <si>
-    <t>ELIXIR X HANNAH - LANDING PAGE</t>
-  </si>
-  <si>
     <t>DPROGRAM X HANNAH - LANDING PAGE</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <t>SHISEIDO PREMIUM - TIKI</t>
   </si>
   <si>
-    <t>SHISEIDO PREMIUM X HANNAH - LANDING PAGE</t>
-  </si>
-  <si>
     <t>NARCISO - LAZADA</t>
   </si>
   <si>
@@ -164,64 +155,52 @@
     <t>0.00%</t>
   </si>
   <si>
-    <t>59.77%</t>
-  </si>
-  <si>
-    <t>11.60%</t>
-  </si>
-  <si>
-    <t>137.90%</t>
-  </si>
-  <si>
-    <t>12.43%</t>
-  </si>
-  <si>
-    <t>17.96%</t>
-  </si>
-  <si>
-    <t>54.09%</t>
-  </si>
-  <si>
-    <t>72.87%</t>
-  </si>
-  <si>
-    <t>53.53%</t>
-  </si>
-  <si>
-    <t>57.20%</t>
-  </si>
-  <si>
-    <t>66.94%</t>
+    <t>13.73%</t>
+  </si>
+  <si>
+    <t>41.23%</t>
   </si>
   <si>
     <t>100.00%</t>
   </si>
   <si>
-    <t>132.56%</t>
-  </si>
-  <si>
-    <t>49.45%</t>
-  </si>
-  <si>
-    <t>47.08%</t>
-  </si>
-  <si>
-    <t>49.15%</t>
-  </si>
-  <si>
-    <t>65.40%</t>
-  </si>
-  <si>
-    <t>53.00%</t>
-  </si>
-  <si>
-    <t>402.98%</t>
-  </si>
-  <si>
-    <t>708.59%</t>
-  </si>
-  <si>
-    <t>126.49%</t>
+    <t>14.98%</t>
+  </si>
+  <si>
+    <t>19.14%</t>
+  </si>
+  <si>
+    <t>105.15%</t>
+  </si>
+  <si>
+    <t>40.65%</t>
+  </si>
+  <si>
+    <t>41.63%</t>
+  </si>
+  <si>
+    <t>71.92%</t>
+  </si>
+  <si>
+    <t>24.27%</t>
+  </si>
+  <si>
+    <t>62.85%</t>
+  </si>
+  <si>
+    <t>97.33%</t>
+  </si>
+  <si>
+    <t>14.97%</t>
+  </si>
+  <si>
+    <t>50.57%</t>
+  </si>
+  <si>
+    <t>90.91%</t>
+  </si>
+  <si>
+    <t>10.51%</t>
   </si>
   <si>
     <t>Name</t>
@@ -230,16 +209,19 @@
     <t>Incentive</t>
   </si>
   <si>
-    <t>57.58%</t>
-  </si>
-  <si>
-    <t>57.35%</t>
-  </si>
-  <si>
-    <t>391.28%</t>
-  </si>
-  <si>
-    <t>30.00%</t>
+    <t>38.22%</t>
+  </si>
+  <si>
+    <t>33.93%</t>
+  </si>
+  <si>
+    <t>52.03%</t>
+  </si>
+  <si>
+    <t>20.00%</t>
+  </si>
+  <si>
+    <t>5.00%</t>
   </si>
 </sst>
 </file>
@@ -618,7 +600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,35 +673,35 @@
         <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2">
+        <v>28667</v>
+      </c>
+      <c r="K2" s="2">
+        <v>208800</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="2">
-        <v>143808</v>
-      </c>
-      <c r="K2" s="2">
-        <v>240600</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="M2" s="2">
         <v>0</v>
       </c>
@@ -727,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P2" s="2">
-        <v>19845.504</v>
+        <v>3612.042</v>
       </c>
       <c r="Q2" s="2">
-        <v>33202.8</v>
+        <v>26308.8</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -750,17 +732,17 @@
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
@@ -768,16 +750,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2">
-        <v>5584</v>
+        <v>3999</v>
       </c>
       <c r="K3" s="2">
-        <v>48150</v>
+        <v>9700</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -786,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P3" s="2">
-        <v>770.5920000000001</v>
+        <v>503.874</v>
       </c>
       <c r="Q3" s="2">
-        <v>6644.700000000001</v>
+        <v>1222.2</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -809,16 +791,16 @@
         <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -827,17 +809,17 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2">
+        <v>51</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="2">
-        <v>44819</v>
-      </c>
-      <c r="K4" s="2">
-        <v>32500</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
@@ -845,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="2">
+        <v>4.947</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="2">
-        <v>2913.235</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>2112.5</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="S4" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -868,607 +850,607 @@
         <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1.649</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="3">
+        <v>32734</v>
+      </c>
+      <c r="K6" s="3">
+        <v>218500</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="3">
+        <v>4122.512000000001</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>27531</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="2">
-        <v>3293</v>
-      </c>
-      <c r="K5" s="2">
-        <v>26500</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="2">
+        <v>16338</v>
+      </c>
+      <c r="K7" s="2">
+        <v>85350</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2058.588</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>10754.1</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="3">
+        <v>16338</v>
+      </c>
+      <c r="K8" s="3">
+        <v>85350</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="3">
+        <v>2058.588</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>10754.1</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="2">
+        <v>57765</v>
+      </c>
+      <c r="K9" s="2">
+        <v>54936</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="2">
+        <v>5083.320000000001</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>4834.368</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="3">
+        <v>57765</v>
+      </c>
+      <c r="K10" s="3">
+        <v>54936</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="3">
+        <v>5083.320000000001</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>4834.368</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="2">
+        <v>30641</v>
+      </c>
+      <c r="K11" s="2">
+        <v>75377</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="2">
-        <v>214.045</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>1722.5</v>
-      </c>
-      <c r="R5" s="2" t="s">
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2696.408</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>6633.176</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="S11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="3">
+        <v>30641</v>
+      </c>
+      <c r="K12" s="3">
+        <v>75377</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="3">
+        <v>2696.408</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>6633.176</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="2">
-        <v>4669</v>
-      </c>
-      <c r="K6" s="2">
-        <v>26000</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="2">
+        <v>8035</v>
+      </c>
+      <c r="K13" s="2">
+        <v>19300</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" s="2">
-        <v>303.485</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>1690</v>
-      </c>
-      <c r="R6" s="2" t="s">
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="2">
+        <v>707.08</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1698.4</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="3">
-        <v>202173</v>
-      </c>
-      <c r="K7" s="3">
-        <v>373750</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P7" s="3">
-        <v>24046.861</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>45372.5</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="2">
-        <v>66530</v>
-      </c>
-      <c r="K8" s="2">
-        <v>91300</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="2">
-        <v>9181.140000000001</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>12599.4</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="3">
-        <v>66530</v>
-      </c>
-      <c r="K9" s="3">
-        <v>91300</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" s="3">
-        <v>9181.140000000001</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>12599.4</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="2">
-        <v>103573</v>
-      </c>
-      <c r="K10" s="2">
-        <v>193500</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P10" s="2">
-        <v>9321.57</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>17415</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="3">
-        <v>103573</v>
-      </c>
-      <c r="K11" s="3">
-        <v>193500</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P11" s="3">
-        <v>9321.57</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>17415</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="2">
-        <v>69444</v>
-      </c>
-      <c r="K12" s="2">
-        <v>121400</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P12" s="2">
-        <v>6249.96</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>10926</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="3">
-        <v>69444</v>
-      </c>
-      <c r="K13" s="3">
-        <v>121400</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P13" s="3">
-        <v>6249.96</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>10926</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>67</v>
+      <c r="S13" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="2">
-        <v>15598</v>
-      </c>
-      <c r="K14" s="2">
-        <v>23300</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P14" s="2">
-        <v>1403.82</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>2097</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>67</v>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="3">
+        <v>8035</v>
+      </c>
+      <c r="K14" s="3">
+        <v>19300</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="3">
+        <v>707.08</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1698.4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
@@ -1476,16 +1458,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J15" s="2">
-        <v>15289</v>
+        <v>44084</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>61300</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -1494,158 +1476,158 @@
         <v>0</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P15" s="2">
-        <v>1376.01</v>
+        <v>3879.392</v>
       </c>
       <c r="Q15" s="2">
-        <v>0</v>
+        <v>5394.400000000001</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3495</v>
+      </c>
+      <c r="K16" s="2">
+        <v>14400</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" s="2">
+        <v>307.56</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1267.2</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
         <v>2</v>
       </c>
-      <c r="C16" s="3">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="3">
-        <v>30887</v>
-      </c>
-      <c r="K16" s="3">
-        <v>23300</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P16" s="3">
-        <v>2779.83</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>2097</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="2">
-        <v>62207</v>
-      </c>
-      <c r="K17" s="2">
-        <v>125800</v>
-      </c>
-      <c r="L17" s="2" t="s">
+      <c r="D17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="3">
+        <v>47579</v>
+      </c>
+      <c r="K17" s="3">
+        <v>75700</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="3">
+        <v>4186.952</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>6661.6</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S17" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P17" s="2">
-        <v>5598.63</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>11322</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G18" s="2">
         <v>0</v>
       </c>
@@ -1653,16 +1635,16 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J18" s="2">
-        <v>8451</v>
+        <v>15039</v>
       </c>
       <c r="K18" s="2">
-        <v>17950</v>
+        <v>15451</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -1671,33 +1653,33 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P18" s="2">
-        <v>760.5899999999999</v>
+        <v>1323.432</v>
       </c>
       <c r="Q18" s="2">
-        <v>1615.5</v>
+        <v>1359.688</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -1712,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J19" s="3">
-        <v>70658</v>
+        <v>15039</v>
       </c>
       <c r="K19" s="3">
-        <v>143750</v>
+        <v>15451</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M19" s="3">
         <v>0</v>
@@ -1730,137 +1712,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P19" s="3">
-        <v>6359.22</v>
+        <v>1323.432</v>
       </c>
       <c r="Q19" s="3">
-        <v>12937.5</v>
+        <v>1359.688</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" s="2">
-        <v>16842</v>
-      </c>
-      <c r="K20" s="2">
-        <v>25751</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P20" s="2">
-        <v>1515.78</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>2317.59</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" s="3">
-        <v>16842</v>
-      </c>
-      <c r="K21" s="3">
-        <v>25751</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P21" s="3">
-        <v>1515.78</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>2317.59</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1878,7 +1742,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -1920,7 +1784,7 @@
         <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1931,31 +1795,31 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>202173</v>
+        <v>32734</v>
       </c>
       <c r="F2" s="2">
-        <v>373750</v>
+        <v>218500</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2">
-        <v>24046.861</v>
+        <v>4122.512000000001</v>
       </c>
       <c r="L2" s="2">
-        <v>45372.5</v>
+        <v>27531</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1966,31 +1830,31 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>66530</v>
+        <v>16338</v>
       </c>
       <c r="F3" s="2">
-        <v>91300</v>
+        <v>85350</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2">
-        <v>9181.140000000001</v>
+        <v>2058.588</v>
       </c>
       <c r="L3" s="2">
-        <v>12599.4</v>
+        <v>10754.1</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2001,31 +1865,31 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
-        <v>103573</v>
+        <v>57765</v>
       </c>
       <c r="F4" s="2">
-        <v>193500</v>
+        <v>54936</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2">
-        <v>9321.57</v>
+        <v>5083.320000000001</v>
       </c>
       <c r="L4" s="2">
-        <v>17415</v>
+        <v>4834.368</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2036,31 +1900,31 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <v>69444</v>
+        <v>30641</v>
       </c>
       <c r="F5" s="2">
-        <v>121400</v>
+        <v>75377</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2">
-        <v>6249.96</v>
+        <v>2696.408</v>
       </c>
       <c r="L5" s="2">
-        <v>10926</v>
+        <v>6633.176</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2071,31 +1935,31 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
-        <v>30887</v>
+        <v>8035</v>
       </c>
       <c r="F6" s="2">
-        <v>23300</v>
+        <v>19300</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
-        <v>2779.83</v>
+        <v>707.08</v>
       </c>
       <c r="L6" s="2">
-        <v>2097</v>
+        <v>1698.4</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="O6" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2106,31 +1970,31 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
-        <v>70658</v>
+        <v>47579</v>
       </c>
       <c r="F7" s="2">
-        <v>143750</v>
+        <v>75700</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2">
-        <v>6359.22</v>
+        <v>4186.952</v>
       </c>
       <c r="L7" s="2">
-        <v>12937.5</v>
+        <v>6661.6</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2141,66 +2005,66 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
-        <v>16842</v>
+        <v>15039</v>
       </c>
       <c r="F8" s="2">
-        <v>25751</v>
+        <v>15451</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2">
-        <v>1515.78</v>
+        <v>1323.432</v>
       </c>
       <c r="L8" s="2">
-        <v>2317.59</v>
+        <v>1359.688</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
-        <v>560107</v>
+        <v>208131</v>
       </c>
       <c r="F9" s="4">
-        <v>972751</v>
+        <v>544614</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4">
-        <v>59454.36099999999</v>
+        <v>20178.292</v>
       </c>
       <c r="L9" s="4">
-        <v>103664.99</v>
+        <v>59472.332</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
